--- a/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/input/CLASIFICACION_ABC+D_MASCOTAS_VIVO_P2_2025.xlsx
@@ -1141,12 +1141,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>2204010002</t>
+          <t>2204010001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CONEJO ENANO (ORYCTOLAGUS CUNICULUS) CON CHIP</t>
+          <t>CONEJO BELIER CON MICROCHIP</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
@@ -1168,13 +1168,13 @@
         <v>6</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>335.94</v>
+        <v>376.72</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>96.38</v>
+        <v>130.08</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>2.9</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>23</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -1217,19 +1217,19 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2204010001</t>
+          <t>2204010002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CONEJO BELIER CON MICROCHIP</t>
+          <t>CONEJO ENANO (ORYCTOLAGUS CUNICULUS) CON CHIP</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -1251,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>376.72</v>
+        <v>335.94</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>130.08</v>
+        <v>96.38</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="L9" s="4" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>2.9</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="4" t="n">
         <v>23</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>OPTIMIZAR PREVENTIVO: Aplicar descuento 10% preventivo. Mantener nivel de compras actual. Stock bien gestionado.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4763,166 +4763,166 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2204030002</t>
+          <t>2707030002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>HAMSTER ROBOROSKI (PHODOPUS ROVBO)</t>
+          <t>MOLLY SURTIDO</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>43</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>48.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>400</v>
+        <v>54.9</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T3" s="8" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2707030002</t>
+          <t>2204030002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MOLLY SURTIDO</t>
+          <t>HAMSTER ROBOROSKI (PHODOPUS ROVBO)</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>89.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>48.29</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>54.9</v>
+        <v>400</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T4" s="8" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14411,17 +14411,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2806010002</t>
+          <t>2805040002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>COMETA SARASA XL</t>
+          <t>PLANTA ESTANQUE FLOTANTE</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>10I12</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -14431,16 +14431,16 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PLANTAS JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0</v>
@@ -14455,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -14464,19 +14464,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>273.33</v>
+        <v>130</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14485,12 +14485,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14502,12 +14502,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>2707040007</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BARBO SAWBWA</t>
+          <t>PEZ  GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -14547,16 +14547,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>613.33</v>
+        <v>553.33</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -14568,12 +14568,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14585,28 +14585,28 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>2104050002</t>
+          <t>2707050028</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
+          <t>BETTA HELLBOY MACHO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0</v>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -14630,19 +14630,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>96.67</v>
+        <v>613.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14651,12 +14651,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14668,12 +14668,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>2707130084</t>
+          <t>2707130074</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PANCHAX RAYADO</t>
+          <t>PEZ HACHA MARMOL</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -14713,16 +14713,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>613.33</v>
+        <v>573.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>30</v>
@@ -14734,12 +14734,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/03/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14751,28 +14751,28 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>2104090001</t>
+          <t>2707100014</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
+          <t>OSCAR SURTIDO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -14796,19 +14796,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T6" s="8" t="inlineStr">
         <is>
@@ -14817,12 +14817,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -14834,28 +14834,28 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>2104090011</t>
+          <t>2707130055</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
+          <t>PEZ MARIPOSA PANTODON</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -14879,16 +14879,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>0</v>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -14917,32 +14917,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>2806030001</t>
+          <t>2707050001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>COMETA SURTIDO XL</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>15CM</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr"/>
+      <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14961,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -14970,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -14991,7 +14983,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -15008,12 +15000,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>2707130055</t>
+          <t>2707100040</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PEZ MARIPOSA PANTODON</t>
+          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
@@ -15044,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -15053,19 +15045,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T9" s="8" t="inlineStr">
         <is>
@@ -15074,12 +15066,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -15091,28 +15083,36 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>2104090002</t>
+          <t>2708010010</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr"/>
-      <c r="D10" s="3" t="inlineStr"/>
+          <t>FANTAIL SURTIDO</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>5CM</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>2104</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PAJARO</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -15136,19 +15136,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>30</v>
+        <v>613.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -15157,12 +15157,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15174,24 +15174,16 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>2707130026</t>
+          <t>2707190011</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PANGASIUS SUTCHI</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLECOSTOMUS ORO</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -15218,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -15227,19 +15219,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>60</v>
+        <v>613.33</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15248,12 +15240,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15265,24 +15257,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>2707120008</t>
+          <t>2806030002</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HYPANCISTRUS L66 3-4</t>
+          <t>ESTURION (CITES CZ18737749)</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15301,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -15310,16 +15302,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>30</v>
@@ -15331,12 +15323,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15348,24 +15340,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>2708010011</t>
+          <t>2707130030</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RANCHU SURTIDO 5-6</t>
+          <t>PEZ CUCHILLO FANTASMA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15384,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -15393,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
@@ -15414,7 +15406,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15431,12 +15423,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>2707050001</t>
+          <t>2707170006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BESUCON HELOSTOMA TEMMINCKII</t>
+          <t>BADIS ESCARLATA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15467,7 +15459,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -15476,16 +15468,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>30</v>
@@ -15497,12 +15489,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15514,12 +15506,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2707110003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>PEZ  GLOBO AGUA DULCE</t>
+          <t>BOTIA LOHACHATA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15550,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -15559,16 +15551,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>553.33</v>
+        <v>613.33</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -15580,12 +15572,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15597,28 +15589,28 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>2707110001</t>
+          <t>2204010008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BOTIA CARA CABALLO</t>
+          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
@@ -15633,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -15642,19 +15634,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>40</v>
+        <v>276.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -15663,12 +15655,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 09/03/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15680,12 +15672,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>2707110003</t>
+          <t>2707130027</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BOTIA LOHACHATA</t>
+          <t>PEZ GLOBO AGUA DULCE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
@@ -15716,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -15725,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -15746,7 +15738,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15763,12 +15755,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>2707130083</t>
+          <t>2707090002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>POPONDETA PASKAI</t>
+          <t>CICLIDO TANGANICA SURTIDO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -15814,10 +15806,10 @@
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>30</v>
@@ -15829,12 +15821,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15846,24 +15838,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>2707130020</t>
+          <t>2806030003</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LABEO ZORRO VOLADOR</t>
+          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15882,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -15891,19 +15883,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>60</v>
+        <v>613.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15912,12 +15904,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15929,12 +15921,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>2707130074</t>
+          <t>2707110001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEZ HACHA MARMOL</t>
+          <t>BOTIA CARA CABALLO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15965,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -15974,19 +15966,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>573.33</v>
+        <v>40</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="8" t="inlineStr">
         <is>
@@ -15995,12 +15987,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/03/2025</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -16012,28 +16004,28 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>2707100024</t>
+          <t>2104090001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>APISTOGRAMA BORELLI</t>
+          <t>DIAMANTE BABERO (POEPHILA ACUTICAUDA)</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>0</v>
@@ -16063,13 +16055,13 @@
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>613.33</v>
+        <v>30</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -16078,12 +16070,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16095,12 +16087,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>2707170006</t>
+          <t>2707070011</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BADIS ESCARLATA</t>
+          <t>TETRA NEON ROSA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16131,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -16140,16 +16132,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>30</v>
@@ -16166,7 +16158,7 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 07/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -16178,24 +16170,32 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>2707120009</t>
+          <t>2708010014</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LORICARIA FILAMENTOSA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>RYUKIN SURTIDO</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>40</v>
+        <v>613.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16261,12 +16261,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2707090011</t>
+          <t>2707190004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO MULTICOLOR</t>
+          <t>ANCISTRUS SP ADULTO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -16306,16 +16306,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>180</v>
+        <v>506.67</v>
       </c>
       <c r="S24" s="5" t="n">
         <v>30</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16344,28 +16344,28 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>2707190004</t>
+          <t>2104090011</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ANCISTRUS SP ADULTO</t>
+          <t>DIAMANTE ENMASCARADO (POEPHILA PERSONATA)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>0</v>
@@ -16395,13 +16395,13 @@
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>506.67</v>
+        <v>30</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16410,12 +16410,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16427,36 +16427,36 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>2805040002</t>
+          <t>2806030001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PLANTA ESTANQUE FLOTANTE</t>
+          <t>COMETA SURTIDO XL</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
+          <t>15CM</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
           <t>UNICO</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS JARDIN ACUATICO</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -16480,19 +16480,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>130</v>
+        <v>613.33</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -16501,12 +16501,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 8.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16518,32 +16518,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>2708010010</t>
+          <t>2707040007</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FANTAIL SURTIDO</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>5CM</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARBO SAWBWA</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16562,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -16571,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -16592,7 +16584,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 35.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -16609,12 +16601,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>2707100002</t>
+          <t>2707050022</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
+          <t>BETTA KOI</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
@@ -16645,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -16654,16 +16646,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>273.33</v>
+        <v>613.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -16675,12 +16667,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -16692,28 +16684,28 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>2806030003</t>
+          <t>2606050001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ESTURION ALBINO (CITES CZ81A01472)</t>
+          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2606</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>ANIMAL VIVO REPTILES</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>0</v>
@@ -16728,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -16737,19 +16729,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>613.33</v>
+        <v>20</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16758,12 +16750,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 62.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16775,12 +16767,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>2707050022</t>
+          <t>2707130020</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BETTA KOI</t>
+          <t>LABEO ZORRO VOLADOR</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
@@ -16811,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -16820,19 +16812,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -16841,12 +16833,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.08€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16858,24 +16850,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>2708020004</t>
+          <t>2707090006</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TELESCOPIO ROJO 6-7CM</t>
+          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16894,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -16903,16 +16895,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>246.67</v>
+        <v>180</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -16929,7 +16921,7 @@
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -16941,12 +16933,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>2707100040</t>
+          <t>2707090011</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>RAMIREZI BOLIVIANO (PAPILIOCHROMIS ALTISPINOSA)</t>
+          <t>CICLIDO MULTICOLOR</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16977,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -16986,16 +16978,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>613.33</v>
+        <v>180</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -17007,12 +16999,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17024,24 +17016,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>2707050028</t>
+          <t>2708020004</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>BETTA HELLBOY MACHO</t>
+          <t>TELESCOPIO ROJO 6-7CM</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17060,7 +17052,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -17069,16 +17061,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>613.33</v>
+        <v>246.67</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>30</v>
@@ -17090,12 +17082,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17107,28 +17099,28 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>2707050026</t>
+          <t>2104090002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>BETTA MACHO LONG TAIL</t>
+          <t>DIAMANTE BICHENOV (POEPHILA BICHENOVII)</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -17143,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -17152,19 +17144,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>313.33</v>
+        <v>30</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
@@ -17173,12 +17165,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/04/2025</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17190,16 +17182,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>2707130030</t>
+          <t>2707130026</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PEZ CUCHILLO FANTASMA</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
+          <t>PANGASIUS SUTCHI</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>5I6</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
           <t>2707</t>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -17235,19 +17235,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
@@ -17256,12 +17256,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.42€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/05/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17273,24 +17273,32 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>2707130012</t>
+          <t>2806010002</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>KILLI GARDNERI</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>COMETA SARASA XL</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>10I12</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2806</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES JARDIN ACUATICO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17324,13 +17332,13 @@
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>40</v>
+        <v>273.33</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17339,12 +17347,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17356,12 +17364,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>2707070011</t>
+          <t>2707100024</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TETRA NEON ROSA</t>
+          <t>APISTOGRAMA BORELLI</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17392,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -17401,16 +17409,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>160</v>
+        <v>613.33</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>30</v>
@@ -17422,12 +17430,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 07/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -17439,24 +17447,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>2707130027</t>
+          <t>2708010011</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PEZ GLOBO AGUA DULCE</t>
+          <t>RANCHU SURTIDO 5-6</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>PECES AGUA FRIA ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17505,7 +17513,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.15€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17522,24 +17530,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>2806030002</t>
+          <t>2707050018</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ESTURION (CITES CZ18737749)</t>
+          <t>GURAMI SURTIDO</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2806</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PECES JARDIN ACUATICO</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17558,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -17567,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
@@ -17588,7 +17596,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -17605,12 +17613,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>2707130086</t>
+          <t>2707130083</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>LABEO ALBINO</t>
+          <t>POPONDETA PASKAI</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
@@ -17641,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -17650,16 +17658,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>506.67</v>
+        <v>613.33</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>30</v>
@@ -17671,12 +17679,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17688,28 +17696,28 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>2606050001</t>
+          <t>2707130086</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>INSECTO HOJA (PHYLLIUN GIGANTEUM)</t>
+          <t>LABEO ALBINO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO REPTILES</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>0</v>
@@ -17739,13 +17747,13 @@
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>20</v>
+        <v>506.67</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T41" s="8" t="inlineStr">
         <is>
@@ -17754,12 +17762,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/05/2025</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -17771,12 +17779,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>2707090002</t>
+          <t>2707130087</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>CICLIDO TANGANICA SURTIDO</t>
+          <t>MICRORASBORA KUBOTAI</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -17807,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -17816,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
@@ -17854,28 +17862,28 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>2707050018</t>
+          <t>2104050002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>GURAMI SURTIDO</t>
+          <t>CACATUA ROSEICAPILLUS (EOLOPLUS ROSEICAPILLUS)</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
       <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
+          <t>ANIMAL VIVO PAJARO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>0</v>
@@ -17890,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -17899,19 +17907,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>613.33</v>
+        <v>96.67</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T43" s="8" t="inlineStr">
         <is>
@@ -17920,12 +17928,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -17937,28 +17945,28 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>2204010008</t>
+          <t>2707130084</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>CONEJO CABEZA LEON (NANUS ORYCTOLAGUS CUNICULUS)</t>
+          <t>PANCHAX RAYADO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ANIMAL VIVO PEQUEÑOS MAMIFEROS</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H44" s="4" t="n">
         <v>0</v>
@@ -17973,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -17982,16 +17990,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>276.67</v>
+        <v>613.33</v>
       </c>
       <c r="S44" s="5" t="n">
         <v>30</v>
@@ -18003,12 +18011,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 09/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -18020,32 +18028,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>2708010014</t>
+          <t>2707120008</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>RYUKIN SURTIDO</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>5I6</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>HYPANCISTRUS L66 3-4</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PECES AGUA FRIA ACUARIOFILIA</t>
+          <t>PECES AGUA CALIENTE ACUARIOFILIA</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -18073,16 +18073,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>613.33</v>
+        <v>506.67</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>30</v>
@@ -18094,12 +18094,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 16/03/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18111,12 +18111,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>2707190011</t>
+          <t>2707130012</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PLECOSTOMUS ORO</t>
+          <t>KILLI GARDNERI</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -18156,19 +18156,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T46" s="8" t="inlineStr">
         <is>
@@ -18177,12 +18177,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.99€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -18194,12 +18194,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>2707130087</t>
+          <t>2707050026</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MICRORASBORA KUBOTAI</t>
+          <t>BETTA MACHO LONG TAIL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -18239,16 +18239,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>506.67</v>
+        <v>313.33</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>30</v>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 16/03/2025</t>
+          <t>Compra 14/04/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18277,12 +18277,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>2707090006</t>
+          <t>2707100002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>KRIBENSIS PELVICACHROMIS PULCHER</t>
+          <t>ANDINOACARA PULCHER AZUL ELECTRICO 3-4</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -18328,10 +18328,10 @@
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>180</v>
+        <v>273.33</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>30</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/05/2025</t>
+          <t>Compra 20/04/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18360,12 +18360,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>2707100014</t>
+          <t>2707120009</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>OSCAR SURTIDO</t>
+          <t>LORICARIA FILAMENTOSA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -18405,19 +18405,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>613.33</v>
+        <v>40</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T49" s="8" t="inlineStr">
         <is>
@@ -18426,12 +18426,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 17.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/05/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
